--- a/SuppXLS/Scen_COM_FR_ELE.xlsx
+++ b/SuppXLS/Scen_COM_FR_ELE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\Shell_168\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D66F8F-66F1-462C-A264-D17384F08308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F02DAC3-A97A-40A6-88DE-8DEAAC04EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A2606115-611A-4946-8404-A8F5FA253245}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="242">
-  <si>
-    <t>NL = PL, I don't have any data for NL'2023</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="241">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -56,9 +53,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>PL</t>
-  </si>
-  <si>
     <t>\I: Timeslice Name</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>1R1MO1</t>
   </si>
   <si>
-    <t>ELEC_FIN</t>
-  </si>
-  <si>
     <t>COM_FR</t>
   </si>
   <si>
@@ -762,6 +753,12 @@
   </si>
   <si>
     <t>Roczne</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
   </si>
 </sst>
 </file>
@@ -772,7 +769,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -829,20 +826,13 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,12 +866,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,12 +956,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2865,10 +2847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D992DC-9029-47A6-9F10-209E6D6231A5}">
-  <dimension ref="A2:K459"/>
+  <dimension ref="A4:K459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="O215" sqref="O215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3196,18 +3178,9 @@
     <col min="16135" max="16135" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
     <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3215,67 +3188,67 @@
     </row>
     <row r="5" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>6</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="E6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F7" s="8">
         <v>3.2414811488041847E-3</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="C8" s="8" t="s">
+        <v>240</v>
+      </c>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" s="9" t="str">
         <f>E7</f>
@@ -3285,18 +3258,18 @@
         <v>3.2338776161456263E-3</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" ref="E9:E72" si="0">E8</f>
@@ -3306,15 +3279,15 @@
         <v>4.2108031681777547E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3324,15 +3297,15 @@
         <v>4.6281168582389624E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3342,15 +3315,15 @@
         <v>4.6296939053274751E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3360,15 +3333,15 @@
         <v>4.4432156181822991E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3378,15 +3351,15 @@
         <v>4.5503079439519764E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3396,15 +3369,15 @@
         <v>4.3449738076838584E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E15" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3414,15 +3387,15 @@
         <v>3.6456461578792923E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E16" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3432,15 +3405,15 @@
         <v>3.5708044043612176E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3450,15 +3423,15 @@
         <v>4.3785032780080694E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3468,15 +3441,15 @@
         <v>4.769645151095037E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3486,15 +3459,15 @@
         <v>4.7697298247642199E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3504,15 +3477,15 @@
         <v>4.5707240682635753E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3522,15 +3495,15 @@
         <v>4.6571118907445018E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3540,15 +3513,15 @@
         <v>4.4258689143785463E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3558,15 +3531,15 @@
         <v>4.0426888087043656E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3576,15 +3549,15 @@
         <v>3.9434357991951201E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3594,15 +3567,15 @@
         <v>4.8285233126286525E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3612,15 +3585,15 @@
         <v>5.2431152327275955E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3630,15 +3603,15 @@
         <v>5.2445481717445222E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>12</v>
+        <v>33</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3648,15 +3621,15 @@
         <v>5.0240421422987919E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3666,15 +3639,15 @@
         <v>5.1077920543167428E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3684,15 +3657,15 @@
         <v>4.8132999639136156E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3702,15 +3675,15 @@
         <v>4.0474048064098401E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3720,15 +3693,15 @@
         <v>3.8957772244960715E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3738,15 +3711,15 @@
         <v>4.6691542776759439E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3756,15 +3729,15 @@
         <v>5.065636942446561E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3774,15 +3747,15 @@
         <v>5.068644160374355E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>12</v>
+        <v>41</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3792,15 +3765,15 @@
         <v>4.8582470271910918E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>12</v>
+        <v>42</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3810,15 +3783,15 @@
         <v>4.9768347805560966E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3828,15 +3801,15 @@
         <v>4.7285831437271992E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3846,15 +3819,15 @@
         <v>3.9956092716353381E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>12</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3864,15 +3837,15 @@
         <v>3.8965055808850156E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3882,15 +3855,15 @@
         <v>4.7492853673402431E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3900,15 +3873,15 @@
         <v>4.8164623626235801E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3918,15 +3891,15 @@
         <v>4.8208600198997274E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3936,15 +3909,15 @@
         <v>4.6100028807252395E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>12</v>
+        <v>50</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3954,15 +3927,15 @@
         <v>4.6704268252233602E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3972,15 +3945,15 @@
         <v>4.4347495539359396E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>12</v>
+        <v>52</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3990,15 +3963,15 @@
         <v>3.6972458033768239E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4008,15 +3981,15 @@
         <v>3.499071477173953E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>12</v>
+        <v>54</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4026,15 +3999,15 @@
         <v>3.947741292439042E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4044,15 +4017,15 @@
         <v>4.4397094769422479E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4062,15 +4035,15 @@
         <v>4.3352537589637094E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4080,15 +4053,15 @@
         <v>4.0691177405317563E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>12</v>
+        <v>58</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4098,15 +4071,15 @@
         <v>4.2042453553335938E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4116,15 +4089,15 @@
         <v>4.0380177531771488E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4134,15 +4107,15 @@
         <v>3.3135781727689322E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>12</v>
+        <v>61</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4152,15 +4125,15 @@
         <v>3.0849669191747413E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4170,15 +4143,15 @@
         <v>3.2705056542599591E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>12</v>
+        <v>63</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4188,15 +4161,15 @@
         <v>3.6724004319971153E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4206,15 +4179,15 @@
         <v>3.6476876074764734E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B60" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4224,46 +4197,46 @@
         <v>3.4958045390493433E-3</v>
       </c>
       <c r="I60" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
-      <c r="B61" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="18" t="str">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="16" t="str">
         <f t="shared" si="0"/>
         <v>2023,2025,2030,2035,2040,2045,2050</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="16">
         <v>3.7689971308037368E-3</v>
       </c>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17">
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15">
         <v>700</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="15">
         <f>F61*I61</f>
         <v>2.6382979915626157</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B62" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4273,15 +4246,15 @@
         <v>3.8199908710646788E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4291,15 +4264,15 @@
         <v>3.1568682166964956E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4309,15 +4282,15 @@
         <v>3.152764800420755E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4327,15 +4300,15 @@
         <v>4.1508091053847106E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4345,15 +4318,15 @@
         <v>4.6896532844829513E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>12</v>
+        <v>72</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4363,15 +4336,15 @@
         <v>4.7317062994481785E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4381,15 +4354,15 @@
         <v>4.5344034607019655E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4399,15 +4372,15 @@
         <v>4.594517857805634E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4417,15 +4390,15 @@
         <v>4.3347040314499451E-3</v>
       </c>
     </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4435,15 +4408,15 @@
         <v>3.6727907450452486E-3</v>
       </c>
     </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="9" t="str">
         <f t="shared" si="0"/>
@@ -4453,15 +4426,15 @@
         <v>3.6042008393244265E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>12</v>
+        <v>78</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="9" t="str">
         <f t="shared" ref="E73:E136" si="1">E72</f>
@@ -4471,15 +4444,15 @@
         <v>4.312226428961727E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>12</v>
+        <v>79</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4489,15 +4462,15 @@
         <v>4.7839650968934952E-3</v>
       </c>
     </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E75" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4507,15 +4480,15 @@
         <v>4.8043828495448835E-3</v>
       </c>
     </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>12</v>
+        <v>81</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E76" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4525,15 +4498,15 @@
         <v>4.5934294754886879E-3</v>
       </c>
     </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>12</v>
+        <v>82</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E77" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4543,15 +4516,15 @@
         <v>4.6308667984796253E-3</v>
       </c>
     </row>
-    <row r="78" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>12</v>
+        <v>83</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E78" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4561,15 +4534,15 @@
         <v>4.3595269317405223E-3</v>
       </c>
     </row>
-    <row r="79" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E79" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4579,15 +4552,15 @@
         <v>3.6877291342966917E-3</v>
       </c>
     </row>
-    <row r="80" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>12</v>
+        <v>85</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E80" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4597,15 +4570,15 @@
         <v>3.6002835422869065E-3</v>
       </c>
     </row>
-    <row r="81" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>12</v>
+        <v>86</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E81" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4615,15 +4588,15 @@
         <v>4.2410502311493337E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>12</v>
+        <v>87</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E82" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4633,15 +4606,15 @@
         <v>4.7095695084784159E-3</v>
       </c>
     </row>
-    <row r="83" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>12</v>
+        <v>88</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E83" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4651,15 +4624,15 @@
         <v>4.7135358185436725E-3</v>
       </c>
     </row>
-    <row r="84" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>12</v>
+        <v>89</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E84" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4669,15 +4642,15 @@
         <v>4.5024228671878665E-3</v>
       </c>
     </row>
-    <row r="85" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>12</v>
+        <v>90</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E85" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4687,15 +4660,15 @@
         <v>4.5670257829280745E-3</v>
       </c>
     </row>
-    <row r="86" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>12</v>
+        <v>91</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E86" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4705,15 +4678,15 @@
         <v>4.3158141500253518E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>12</v>
+        <v>92</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E87" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4723,15 +4696,15 @@
         <v>3.6655811077823649E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C88" s="9" t="s">
-        <v>12</v>
+        <v>93</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E88" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4741,15 +4714,15 @@
         <v>3.579963978524974E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>12</v>
+        <v>94</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4759,15 +4732,15 @@
         <v>4.3146930380785885E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>12</v>
+        <v>95</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E90" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4777,15 +4750,15 @@
         <v>4.7835264221535393E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>12</v>
+        <v>96</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E91" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4795,15 +4768,15 @@
         <v>4.7962199821677863E-3</v>
       </c>
     </row>
-    <row r="92" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B92" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>12</v>
+        <v>97</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E92" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4813,15 +4786,15 @@
         <v>4.593166335778308E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>12</v>
+        <v>98</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E93" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4831,15 +4804,15 @@
         <v>4.6577068861044825E-3</v>
       </c>
     </row>
-    <row r="94" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>12</v>
+        <v>99</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E94" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4849,15 +4822,15 @@
         <v>4.3837431126246161E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>12</v>
+        <v>100</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E95" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4867,15 +4840,15 @@
         <v>3.7163029152980516E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>12</v>
+        <v>101</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E96" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4885,15 +4858,15 @@
         <v>3.623747593021095E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E97" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4903,15 +4876,15 @@
         <v>4.3182433073269983E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>12</v>
+        <v>103</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E98" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4921,15 +4894,15 @@
         <v>5.144886611781474E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>12</v>
+        <v>104</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E99" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4939,15 +4912,15 @@
         <v>5.1674042714285719E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>12</v>
+        <v>105</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E100" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4957,15 +4930,15 @@
         <v>4.9459720423091786E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>12</v>
+        <v>106</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E101" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4975,15 +4948,15 @@
         <v>4.972591489892225E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>12</v>
+        <v>107</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E102" s="9" t="str">
         <f t="shared" si="1"/>
@@ -4993,15 +4966,15 @@
         <v>4.6552762632970255E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E103" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5011,15 +4984,15 @@
         <v>3.9416177578173971E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>12</v>
+        <v>109</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E104" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5029,15 +5002,15 @@
         <v>3.7484307107293418E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>12</v>
+        <v>110</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E105" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5047,15 +5020,15 @@
         <v>4.1236861751379889E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>12</v>
+        <v>111</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E106" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5065,15 +5038,15 @@
         <v>4.6747059393626531E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E107" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5083,15 +5056,15 @@
         <v>4.5874910831013886E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B108" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>12</v>
+        <v>113</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E108" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5101,15 +5074,15 @@
         <v>4.3124833809808968E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>12</v>
+        <v>114</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E109" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5119,15 +5092,15 @@
         <v>4.4128123974246716E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>12</v>
+        <v>115</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E110" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5137,15 +5110,15 @@
         <v>4.2130429495615962E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>12</v>
+        <v>116</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E111" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5155,15 +5128,15 @@
         <v>3.2154418786890125E-3</v>
       </c>
     </row>
-    <row r="112" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B112" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C112" s="9" t="s">
-        <v>12</v>
+        <v>117</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E112" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5173,15 +5146,15 @@
         <v>2.9934097691902578E-3</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>12</v>
+        <v>118</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E113" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5191,15 +5164,15 @@
         <v>3.1339348419005073E-3</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B114" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>12</v>
+        <v>119</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E114" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5209,15 +5182,15 @@
         <v>3.6004507727835405E-3</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>12</v>
+        <v>120</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E115" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5227,15 +5200,15 @@
         <v>3.6197146838583458E-3</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>12</v>
+        <v>121</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E116" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5245,15 +5218,15 @@
         <v>3.4629387800243364E-3</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>12</v>
+        <v>122</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E117" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5263,15 +5236,15 @@
         <v>3.6621550808600815E-3</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E118" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5281,15 +5254,15 @@
         <v>3.6944764858926372E-3</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>12</v>
+        <v>124</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E119" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5299,15 +5272,15 @@
         <v>3.6819928188775745E-3</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C120" s="9" t="s">
-        <v>12</v>
+        <v>125</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E120" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5317,15 +5290,15 @@
         <v>3.7952847227371847E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>12</v>
+        <v>126</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E121" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5335,15 +5308,15 @@
         <v>4.9671030077894449E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B122" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>12</v>
+        <v>127</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E122" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5353,15 +5326,15 @@
         <v>5.3509705985237887E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>12</v>
+        <v>128</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E123" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5371,15 +5344,15 @@
         <v>5.3701856594048358E-3</v>
       </c>
     </row>
-    <row r="124" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>12</v>
+        <v>129</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E124" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5389,15 +5362,15 @@
         <v>5.4715374360719401E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>12</v>
+        <v>130</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E125" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5407,15 +5380,15 @@
         <v>5.6294653903087629E-3</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B126" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>12</v>
+        <v>131</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E126" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5425,15 +5398,15 @@
         <v>4.8195140342276949E-3</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>12</v>
+        <v>132</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E127" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5443,15 +5416,15 @@
         <v>4.2485887930501908E-3</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B128" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>12</v>
+        <v>133</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E128" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5461,15 +5434,15 @@
         <v>4.2668082869824348E-3</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>12</v>
+        <v>134</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E129" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5479,15 +5452,15 @@
         <v>5.1160926792402405E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B130" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="C130" s="9" t="s">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E130" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5497,15 +5470,15 @@
         <v>5.4109798048768993E-3</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>12</v>
+        <v>136</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E131" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5515,15 +5488,15 @@
         <v>5.431138977169324E-3</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>12</v>
+        <v>137</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D132" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E132" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5533,15 +5506,15 @@
         <v>5.5427900030205757E-3</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>12</v>
+        <v>138</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E133" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5551,15 +5524,15 @@
         <v>5.6760044814008403E-3</v>
       </c>
     </row>
-    <row r="134" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>12</v>
+        <v>139</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E134" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5569,15 +5542,15 @@
         <v>4.8489138720055154E-3</v>
       </c>
     </row>
-    <row r="135" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>12</v>
+        <v>140</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E135" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5587,15 +5560,15 @@
         <v>4.2875834602181589E-3</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>12</v>
+        <v>141</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E136" s="9" t="str">
         <f t="shared" si="1"/>
@@ -5605,15 +5578,15 @@
         <v>4.2963168978583594E-3</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>12</v>
+        <v>142</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E137" s="9" t="str">
         <f t="shared" ref="E137:E200" si="2">E136</f>
@@ -5623,15 +5596,15 @@
         <v>5.1426250106444181E-3</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B138" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C138" s="9" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E138" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5641,15 +5614,15 @@
         <v>5.4339991560139033E-3</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>12</v>
+        <v>144</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E139" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5659,15 +5632,15 @@
         <v>5.4313539180218659E-3</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>12</v>
+        <v>145</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E140" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5677,15 +5650,15 @@
         <v>5.5452885275973605E-3</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B141" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>12</v>
+        <v>146</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E141" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5695,15 +5668,15 @@
         <v>5.7035258663946558E-3</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B142" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>12</v>
+        <v>147</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E142" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5713,15 +5686,15 @@
         <v>4.877780102833509E-3</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>12</v>
+        <v>148</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E143" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5731,15 +5704,15 @@
         <v>4.2437270589333357E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B144" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>12</v>
+        <v>149</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E144" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5749,15 +5722,15 @@
         <v>4.2534228453905828E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B145" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>12</v>
+        <v>150</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E145" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5767,15 +5740,15 @@
         <v>5.0262311194811237E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B146" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>12</v>
+        <v>151</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E146" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5785,15 +5758,15 @@
         <v>5.3020536428335123E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B147" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>12</v>
+        <v>152</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E147" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5803,15 +5776,15 @@
         <v>5.3055889313558362E-3</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>12</v>
+        <v>153</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E148" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5821,15 +5794,15 @@
         <v>5.4377366843383875E-3</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B149" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>12</v>
+        <v>154</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E149" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5839,15 +5812,15 @@
         <v>5.6056608537240768E-3</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B150" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>12</v>
+        <v>155</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D150" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E150" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5857,15 +5830,15 @@
         <v>4.8124130072289342E-3</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B151" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>12</v>
+        <v>156</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E151" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5875,15 +5848,15 @@
         <v>4.2344678303743123E-3</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B152" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>12</v>
+        <v>157</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D152" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E152" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5893,15 +5866,15 @@
         <v>4.2323623870233074E-3</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B153" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>12</v>
+        <v>158</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E153" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5911,15 +5884,15 @@
         <v>5.0930166618784753E-3</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>12</v>
+        <v>159</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E154" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5929,15 +5902,15 @@
         <v>5.4117290040151794E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>12</v>
+        <v>160</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E155" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5947,15 +5920,15 @@
         <v>5.4293111657528507E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B156" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>12</v>
+        <v>161</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E156" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5965,15 +5938,15 @@
         <v>5.5324169900438543E-3</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B157" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>12</v>
+        <v>162</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E157" s="9" t="str">
         <f t="shared" si="2"/>
@@ -5983,15 +5956,15 @@
         <v>5.6238669952700252E-3</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B158" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>12</v>
+        <v>163</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E158" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6001,15 +5974,15 @@
         <v>4.8325778787106314E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B159" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>12</v>
+        <v>164</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E159" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6019,15 +5992,15 @@
         <v>3.8751668392472934E-3</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B160" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>12</v>
+        <v>165</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E160" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6037,15 +6010,15 @@
         <v>3.8003767041006236E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>12</v>
+        <v>166</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E161" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6055,15 +6028,15 @@
         <v>4.1366752788244768E-3</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B162" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>12</v>
+        <v>167</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E162" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6073,15 +6046,15 @@
         <v>4.5438875629862565E-3</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B163" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>12</v>
+        <v>168</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E163" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6091,15 +6064,15 @@
         <v>4.4860842685493178E-3</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B164" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>12</v>
+        <v>169</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E164" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6109,15 +6082,15 @@
         <v>4.558956545089015E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>12</v>
+        <v>170</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E165" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6127,15 +6100,15 @@
         <v>4.6872335715520972E-3</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B166" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>12</v>
+        <v>171</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E166" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6145,15 +6118,15 @@
         <v>4.0485706977008845E-3</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>12</v>
+        <v>172</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E167" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6163,15 +6136,15 @@
         <v>3.6939231760313288E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B168" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E168" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6181,15 +6154,15 @@
         <v>3.5948238817984438E-3</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>12</v>
+        <v>174</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E169" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6199,15 +6172,15 @@
         <v>3.705767068342131E-3</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B170" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>12</v>
+        <v>175</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E170" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6217,15 +6190,15 @@
         <v>4.1049275379006281E-3</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B171" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>12</v>
+        <v>176</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E171" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6235,15 +6208,15 @@
         <v>4.1579812908323788E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B172" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>12</v>
+        <v>177</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E172" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6253,15 +6226,15 @@
         <v>4.3047552803282549E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B173" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>12</v>
+        <v>178</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E173" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6271,15 +6244,15 @@
         <v>4.6708233259627023E-3</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B174" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>12</v>
+        <v>179</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E174" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6289,15 +6262,15 @@
         <v>4.1774399513463036E-3</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B175" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>12</v>
+        <v>180</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E175" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6307,15 +6280,15 @@
         <v>4.0006994618250061E-3</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B176" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>12</v>
+        <v>181</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E176" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6325,15 +6298,15 @@
         <v>4.0446257188869027E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>12</v>
+        <v>182</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E177" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6343,15 +6316,15 @@
         <v>5.0334508524507169E-3</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B178" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>12</v>
+        <v>183</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E178" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6361,15 +6334,15 @@
         <v>5.4423232290304038E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>12</v>
+        <v>184</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E179" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6379,15 +6352,15 @@
         <v>5.4696275563299512E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B180" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>12</v>
+        <v>185</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E180" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6397,15 +6370,15 @@
         <v>5.6132964646765371E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>12</v>
+        <v>186</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E181" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6415,15 +6388,15 @@
         <v>5.7516983451320492E-3</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B182" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>12</v>
+        <v>187</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E182" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6433,15 +6406,15 @@
         <v>4.9741967072591412E-3</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B183" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>12</v>
+        <v>188</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E183" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6451,15 +6424,15 @@
         <v>4.0468863430200815E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B184" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>12</v>
+        <v>189</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D184" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E184" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6469,15 +6442,15 @@
         <v>4.0614717082046274E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B185" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>12</v>
+        <v>190</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E185" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6487,15 +6460,15 @@
         <v>4.8599663911774232E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B186" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>12</v>
+        <v>191</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E186" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6505,15 +6478,15 @@
         <v>5.1733568303720624E-3</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B187" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>12</v>
+        <v>192</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E187" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6523,15 +6496,15 @@
         <v>5.2066102971015374E-3</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B188" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>12</v>
+        <v>193</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E188" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6541,15 +6514,15 @@
         <v>5.3062388017668088E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>12</v>
+        <v>194</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E189" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6559,15 +6532,15 @@
         <v>5.4854154504508576E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B190" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>12</v>
+        <v>195</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E190" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6577,15 +6550,15 @@
         <v>4.7130826515795702E-3</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>12</v>
+        <v>196</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E191" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6595,15 +6568,15 @@
         <v>3.7535764273059161E-3</v>
       </c>
     </row>
-    <row r="192" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B192" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>12</v>
+        <v>197</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E192" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6613,15 +6586,15 @@
         <v>3.7538312624833588E-3</v>
       </c>
     </row>
-    <row r="193" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>12</v>
+        <v>198</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E193" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6631,15 +6604,15 @@
         <v>4.4878775591622021E-3</v>
       </c>
     </row>
-    <row r="194" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B194" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>12</v>
+        <v>199</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E194" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6649,15 +6622,15 @@
         <v>4.7833170176562927E-3</v>
       </c>
     </row>
-    <row r="195" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>12</v>
+        <v>200</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E195" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6667,15 +6640,15 @@
         <v>4.8009280010082806E-3</v>
       </c>
     </row>
-    <row r="196" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B196" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>12</v>
+        <v>201</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E196" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6685,15 +6658,15 @@
         <v>4.8933507764261702E-3</v>
       </c>
     </row>
-    <row r="197" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>12</v>
+        <v>202</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E197" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6703,15 +6676,15 @@
         <v>5.0911579120059541E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B198" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>12</v>
+        <v>203</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E198" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6721,15 +6694,15 @@
         <v>4.3592098939830293E-3</v>
       </c>
     </row>
-    <row r="199" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B199" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>12</v>
+        <v>204</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E199" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6739,15 +6712,15 @@
         <v>3.7754108355763098E-3</v>
       </c>
     </row>
-    <row r="200" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B200" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>12</v>
+        <v>205</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E200" s="9" t="str">
         <f t="shared" si="2"/>
@@ -6757,15 +6730,15 @@
         <v>3.7830399331696025E-3</v>
       </c>
     </row>
-    <row r="201" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B201" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>12</v>
+        <v>206</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D201" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E201" s="9" t="str">
         <f t="shared" ref="E201:E230" si="3">E200</f>
@@ -6775,15 +6748,15 @@
         <v>4.5579987556233848E-3</v>
       </c>
     </row>
-    <row r="202" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B202" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>12</v>
+        <v>207</v>
+      </c>
+      <c r="C202" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D202" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E202" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6793,15 +6766,15 @@
         <v>4.9006817250035542E-3</v>
       </c>
     </row>
-    <row r="203" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B203" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>12</v>
+        <v>208</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E203" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6811,15 +6784,15 @@
         <v>4.9455478597933734E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B204" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>12</v>
+        <v>209</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D204" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E204" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6829,15 +6802,15 @@
         <v>5.0415593332787641E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>12</v>
+        <v>210</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E205" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6847,15 +6820,15 @@
         <v>5.1606381939250205E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B206" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>12</v>
+        <v>211</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D206" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E206" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6865,15 +6838,15 @@
         <v>4.3898011879866267E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>12</v>
+        <v>212</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E207" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6883,15 +6856,15 @@
         <v>3.7931636473241765E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B208" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>12</v>
+        <v>213</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D208" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E208" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6901,15 +6874,15 @@
         <v>3.7881705061861099E-3</v>
       </c>
     </row>
-    <row r="209" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C209" s="10" t="s">
-        <v>12</v>
+        <v>214</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E209" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6919,15 +6892,15 @@
         <v>4.5226290985002776E-3</v>
       </c>
     </row>
-    <row r="210" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B210" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>12</v>
+        <v>215</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D210" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E210" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6937,15 +6910,15 @@
         <v>4.8481803049292361E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C211" s="10" t="s">
-        <v>12</v>
+        <v>216</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E211" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6955,15 +6928,15 @@
         <v>4.893126879704778E-3</v>
       </c>
     </row>
-    <row r="212" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B212" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>12</v>
+        <v>217</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E212" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6973,15 +6946,15 @@
         <v>4.9737225347117227E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C213" s="10" t="s">
-        <v>12</v>
+        <v>218</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E213" s="9" t="str">
         <f t="shared" si="3"/>
@@ -6991,15 +6964,15 @@
         <v>5.1183531405394386E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B214" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>12</v>
+        <v>219</v>
+      </c>
+      <c r="C214" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E214" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7009,15 +6982,15 @@
         <v>4.3978062692378818E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C215" s="10" t="s">
-        <v>12</v>
+        <v>220</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E215" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7027,15 +7000,15 @@
         <v>4.1434408678260913E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B216" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>12</v>
+        <v>221</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E216" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7045,15 +7018,15 @@
         <v>4.0350582456052612E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B217" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="C217" s="10" t="s">
-        <v>12</v>
+        <v>222</v>
+      </c>
+      <c r="C217" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E217" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7063,15 +7036,15 @@
         <v>4.348688702085237E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B218" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>12</v>
+        <v>223</v>
+      </c>
+      <c r="C218" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D218" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E218" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7081,15 +7054,15 @@
         <v>4.8594186176714087E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B219" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C219" s="10" t="s">
-        <v>12</v>
+        <v>224</v>
+      </c>
+      <c r="C219" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E219" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7099,15 +7072,15 @@
         <v>4.8473653208633604E-3</v>
       </c>
     </row>
-    <row r="220" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B220" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>12</v>
+        <v>225</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E220" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7117,15 +7090,15 @@
         <v>4.9321265947260993E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B221" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C221" s="10" t="s">
-        <v>12</v>
+        <v>226</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E221" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7135,15 +7108,15 @@
         <v>5.1196146153762705E-3</v>
       </c>
     </row>
-    <row r="222" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B222" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>12</v>
+        <v>227</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E222" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7153,15 +7126,15 @@
         <v>4.4287572635015246E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B223" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C223" s="10" t="s">
-        <v>12</v>
+        <v>228</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E223" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7171,15 +7144,15 @@
         <v>3.7635537537131928E-3</v>
       </c>
     </row>
-    <row r="224" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B224" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C224" s="9" t="s">
-        <v>12</v>
+        <v>229</v>
+      </c>
+      <c r="C224" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E224" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7189,15 +7162,15 @@
         <v>3.6451460947291812E-3</v>
       </c>
     </row>
-    <row r="225" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B225" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C225" s="10" t="s">
-        <v>12</v>
+        <v>230</v>
+      </c>
+      <c r="C225" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E225" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7207,15 +7180,15 @@
         <v>3.7548131513779094E-3</v>
       </c>
     </row>
-    <row r="226" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B226" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C226" s="9" t="s">
-        <v>12</v>
+        <v>231</v>
+      </c>
+      <c r="C226" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E226" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7225,15 +7198,15 @@
         <v>4.135870553299289E-3</v>
       </c>
     </row>
-    <row r="227" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B227" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C227" s="10" t="s">
-        <v>12</v>
+        <v>232</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D227" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E227" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7243,15 +7216,15 @@
         <v>4.2163937471854929E-3</v>
       </c>
     </row>
-    <row r="228" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B228" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="C228" s="9" t="s">
-        <v>12</v>
+        <v>233</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E228" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7261,15 +7234,15 @@
         <v>4.3981625499843633E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B229" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C229" s="10" t="s">
-        <v>12</v>
+        <v>234</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E229" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7281,13 +7254,13 @@
     </row>
     <row r="230" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B230" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>12</v>
+        <v>235</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E230" s="9" t="str">
         <f t="shared" si="3"/>
@@ -7312,10 +7285,10 @@
       <c r="B233"/>
       <c r="C233"/>
       <c r="D233"/>
-      <c r="E233" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="F233" s="16">
+      <c r="E233" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F233" s="14">
         <f>SUM(F7:F230)</f>
         <v>1.0000000000000009</v>
       </c>
@@ -7597,6 +7570,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7740,22 +7722,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D2A56F-6048-4CC0-BBF0-A521C2E1F8A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ECB0ABF-990D-473C-ABB6-99CA1F4AA49B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7773,7 +7754,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E716287D-7EC0-4D97-A118-ECA26323280A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7787,12 +7768,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13D2A56F-6048-4CC0-BBF0-A521C2E1F8A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>